--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Egf-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Egf-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H2">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I2">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J2">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1605563333333333</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N2">
-        <v>0.481669</v>
+        <v>0.168642</v>
       </c>
       <c r="O2">
-        <v>0.01905578313479183</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P2">
-        <v>0.02595755287029415</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q2">
-        <v>0.008879568015</v>
+        <v>0.01205368695</v>
       </c>
       <c r="R2">
-        <v>0.05327740809</v>
+        <v>0.04821474779999999</v>
       </c>
       <c r="S2">
-        <v>0.001133469479442409</v>
+        <v>0.001680144760653412</v>
       </c>
       <c r="T2">
-        <v>0.001201091053027042</v>
+        <v>0.001196078305812725</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H3">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I3">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J3">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5664446666666666</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N3">
-        <v>1.699334</v>
+        <v>0.481669</v>
       </c>
       <c r="O3">
-        <v>0.06722903109309158</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P3">
-        <v>0.09157855736883302</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q3">
-        <v>0.03132722229</v>
+        <v>0.02295152785</v>
       </c>
       <c r="R3">
-        <v>0.18796333374</v>
+        <v>0.1377091671</v>
       </c>
       <c r="S3">
-        <v>0.003998893896802134</v>
+        <v>0.003199177930049724</v>
       </c>
       <c r="T3">
-        <v>0.00423746361817899</v>
+        <v>0.00341619431388687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H4">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I4">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J4">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.7207635</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N4">
-        <v>13.441527</v>
+        <v>1.727297</v>
       </c>
       <c r="O4">
-        <v>0.797660292168841</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P4">
-        <v>0.7243753443962271</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q4">
-        <v>0.3716918253675</v>
+        <v>0.08230570204999998</v>
       </c>
       <c r="R4">
-        <v>1.48676730147</v>
+        <v>0.4938342123</v>
       </c>
       <c r="S4">
-        <v>0.04744615268452327</v>
+        <v>0.01147246437084616</v>
       </c>
       <c r="T4">
-        <v>0.03351782618088651</v>
+        <v>0.01225069952559506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H5">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I5">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J5">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08863199999999999</v>
+        <v>9.042617</v>
       </c>
       <c r="N5">
-        <v>0.265896</v>
+        <v>18.085234</v>
       </c>
       <c r="O5">
-        <v>0.01051937432637061</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P5">
-        <v>0.01432936202661938</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q5">
-        <v>0.004901792759999999</v>
+        <v>1.29264210015</v>
       </c>
       <c r="R5">
-        <v>0.02941075656</v>
+        <v>5.1705684006</v>
       </c>
       <c r="S5">
-        <v>0.0006257097731135258</v>
+        <v>0.1801793808795612</v>
       </c>
       <c r="T5">
-        <v>0.0006630389471518376</v>
+        <v>0.1282679050470624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H6">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I6">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J6">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.8891996666666667</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N6">
-        <v>2.667599</v>
+        <v>0.218831</v>
       </c>
       <c r="O6">
-        <v>0.105535519276905</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P6">
-        <v>0.1437591833380263</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q6">
-        <v>0.049177187565</v>
+        <v>0.01042729715</v>
       </c>
       <c r="R6">
-        <v>0.29506312539</v>
+        <v>0.0625637829</v>
       </c>
       <c r="S6">
-        <v>0.006277427133344875</v>
+        <v>0.001453444804649482</v>
       </c>
       <c r="T6">
-        <v>0.006651931704062095</v>
+        <v>0.001552039300644587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,25 +844,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2475473333333333</v>
+        <v>0.14295</v>
       </c>
       <c r="H7">
-        <v>0.742642</v>
+        <v>0.2859</v>
       </c>
       <c r="I7">
-        <v>0.2662421946351253</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J7">
-        <v>0.3106685563974191</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1605563333333333</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N7">
-        <v>0.481669</v>
+        <v>1.209229</v>
       </c>
       <c r="O7">
-        <v>0.01905578313479183</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P7">
-        <v>0.02595755287029415</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q7">
-        <v>0.03974529216644444</v>
+        <v>0.05761976185</v>
       </c>
       <c r="R7">
-        <v>0.357707629498</v>
+        <v>0.3457185711</v>
       </c>
       <c r="S7">
-        <v>0.005073453522297983</v>
+        <v>0.00803152938880455</v>
       </c>
       <c r="T7">
-        <v>0.008064195477823966</v>
+        <v>0.008576348558838345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>0.742642</v>
       </c>
       <c r="I8">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J8">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.5664446666666666</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N8">
-        <v>1.699334</v>
+        <v>0.168642</v>
       </c>
       <c r="O8">
-        <v>0.06722903109309158</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P8">
-        <v>0.09157855736883302</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q8">
-        <v>0.1402218667142222</v>
+        <v>0.020873438694</v>
       </c>
       <c r="R8">
-        <v>1.261996800428</v>
+        <v>0.125240632164</v>
       </c>
       <c r="S8">
-        <v>0.01789920478141778</v>
+        <v>0.002909516300200936</v>
       </c>
       <c r="T8">
-        <v>0.02845057821473359</v>
+        <v>0.003106883473890779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>0.742642</v>
       </c>
       <c r="I9">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J9">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.7207635</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N9">
-        <v>13.441527</v>
+        <v>0.481669</v>
       </c>
       <c r="O9">
-        <v>0.797660292168841</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P9">
-        <v>0.7243753443962271</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q9">
-        <v>1.663707082389</v>
+        <v>0.03974529216644444</v>
       </c>
       <c r="R9">
-        <v>9.982242494334001</v>
+        <v>0.357707629498</v>
       </c>
       <c r="S9">
-        <v>0.2123708267603275</v>
+        <v>0.00554003473552055</v>
       </c>
       <c r="T9">
-        <v>0.2250406425334592</v>
+        <v>0.008873764874619003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>0.742642</v>
       </c>
       <c r="I10">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J10">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.08863199999999999</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N10">
-        <v>0.265896</v>
+        <v>1.727297</v>
       </c>
       <c r="O10">
-        <v>0.01051937432637061</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P10">
-        <v>0.01432936202661938</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q10">
-        <v>0.021940615248</v>
+        <v>0.1425292554082222</v>
       </c>
       <c r="R10">
-        <v>0.197465537232</v>
+        <v>1.282763298674</v>
       </c>
       <c r="S10">
-        <v>0.002800701306841305</v>
+        <v>0.01986693222640535</v>
       </c>
       <c r="T10">
-        <v>0.00445168221490584</v>
+        <v>0.03182190974846789</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>0.742642</v>
       </c>
       <c r="I11">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J11">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8891996666666667</v>
+        <v>9.042617</v>
       </c>
       <c r="N11">
-        <v>2.667599</v>
+        <v>18.085234</v>
       </c>
       <c r="O11">
-        <v>0.105535519276905</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P11">
-        <v>0.1437591833380263</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q11">
-        <v>0.2201190062842222</v>
+        <v>2.238475724704667</v>
       </c>
       <c r="R11">
-        <v>1.981071056558</v>
+        <v>13.430854348228</v>
       </c>
       <c r="S11">
-        <v>0.02809800826424075</v>
+        <v>0.3120176653262425</v>
       </c>
       <c r="T11">
-        <v>0.04466145795649654</v>
+        <v>0.3331833981810441</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1254893333333333</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H12">
-        <v>0.376468</v>
+        <v>0.742642</v>
       </c>
       <c r="I12">
-        <v>0.1349663317317043</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J12">
-        <v>0.1574874166688978</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1605563333333333</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N12">
-        <v>0.481669</v>
+        <v>0.218831</v>
       </c>
       <c r="O12">
-        <v>0.01905578313479183</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P12">
-        <v>0.02595755287029415</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q12">
-        <v>0.02014810723244444</v>
+        <v>0.01805701016688889</v>
       </c>
       <c r="R12">
-        <v>0.181332965092</v>
+        <v>0.162513091502</v>
       </c>
       <c r="S12">
-        <v>0.002571889147977729</v>
+        <v>0.002516938688619566</v>
       </c>
       <c r="T12">
-        <v>0.004087987944588958</v>
+        <v>0.004031513012624335</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1254893333333333</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H13">
-        <v>0.376468</v>
+        <v>0.742642</v>
       </c>
       <c r="I13">
-        <v>0.1349663317317043</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J13">
-        <v>0.1574874166688978</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5664446666666666</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N13">
-        <v>1.699334</v>
+        <v>1.209229</v>
       </c>
       <c r="O13">
-        <v>0.06722903109309158</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P13">
-        <v>0.09157855736883302</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q13">
-        <v>0.0710827635902222</v>
+        <v>0.09978047144644446</v>
       </c>
       <c r="R13">
-        <v>0.6397448723119999</v>
+        <v>0.8980242430180001</v>
       </c>
       <c r="S13">
-        <v>0.00907365571251126</v>
+        <v>0.01390824541998505</v>
       </c>
       <c r="T13">
-        <v>0.01442247042228196</v>
+        <v>0.02227756784341667</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1254893333333333</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H14">
-        <v>0.376468</v>
+        <v>0.225175</v>
       </c>
       <c r="I14">
-        <v>0.1349663317317043</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J14">
-        <v>0.1574874166688978</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>6.7207635</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N14">
-        <v>13.441527</v>
+        <v>0.168642</v>
       </c>
       <c r="O14">
-        <v>0.797660292168841</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P14">
-        <v>0.7243753443962271</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q14">
-        <v>0.8433841311059999</v>
+        <v>0.006328993725</v>
       </c>
       <c r="R14">
-        <v>5.060304786636</v>
+        <v>0.03797396235</v>
       </c>
       <c r="S14">
-        <v>0.107657283602068</v>
+        <v>0.0008821886358403454</v>
       </c>
       <c r="T14">
-        <v>0.1140800016876049</v>
+        <v>0.0009420319430268639</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1254893333333333</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H15">
-        <v>0.376468</v>
+        <v>0.225175</v>
       </c>
       <c r="I15">
-        <v>0.1349663317317043</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J15">
-        <v>0.1574874166688978</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.08863199999999999</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N15">
-        <v>0.265896</v>
+        <v>0.481669</v>
       </c>
       <c r="O15">
-        <v>0.01051937432637061</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P15">
-        <v>0.01432936202661938</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q15">
-        <v>0.011122370592</v>
+        <v>0.01205109078611111</v>
       </c>
       <c r="R15">
-        <v>0.100101335328</v>
+        <v>0.108459817075</v>
       </c>
       <c r="S15">
-        <v>0.001419761364942909</v>
+        <v>0.001679782885388706</v>
       </c>
       <c r="T15">
-        <v>0.002256694208085688</v>
+        <v>0.002690596553443428</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1254893333333333</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H16">
-        <v>0.376468</v>
+        <v>0.225175</v>
       </c>
       <c r="I16">
-        <v>0.1349663317317043</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J16">
-        <v>0.1574874166688978</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8891996666666667</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N16">
-        <v>2.667599</v>
+        <v>1.727297</v>
       </c>
       <c r="O16">
-        <v>0.105535519276905</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P16">
-        <v>0.1437591833380263</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q16">
-        <v>0.1115850733702222</v>
+        <v>0.04321601133055555</v>
       </c>
       <c r="R16">
-        <v>1.004265660332</v>
+        <v>0.388944101975</v>
       </c>
       <c r="S16">
-        <v>0.01424374190420443</v>
+        <v>0.006023812905923479</v>
       </c>
       <c r="T16">
-        <v>0.02264026240633622</v>
+        <v>0.00964865780229405</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3435785</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H17">
-        <v>0.687157</v>
+        <v>0.225175</v>
       </c>
       <c r="I17">
-        <v>0.3695256686375578</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J17">
-        <v>0.2874575814569891</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1605563333333333</v>
+        <v>9.042617</v>
       </c>
       <c r="N17">
-        <v>0.481669</v>
+        <v>18.085234</v>
       </c>
       <c r="O17">
-        <v>0.01905578313479183</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P17">
-        <v>0.02595755287029415</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q17">
-        <v>0.05516370417216666</v>
+        <v>0.6787237609916666</v>
       </c>
       <c r="R17">
-        <v>0.330982225033</v>
+        <v>4.072342565950001</v>
       </c>
       <c r="S17">
-        <v>0.007041601004296246</v>
+        <v>0.09460625414376866</v>
       </c>
       <c r="T17">
-        <v>0.007461695368636682</v>
+        <v>0.101023873798434</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3435785</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H18">
-        <v>0.687157</v>
+        <v>0.225175</v>
       </c>
       <c r="I18">
-        <v>0.3695256686375578</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J18">
-        <v>0.2874575814569891</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.5664446666666666</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N18">
-        <v>1.699334</v>
+        <v>0.218831</v>
       </c>
       <c r="O18">
-        <v>0.06722903109309158</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P18">
-        <v>0.09157855736883302</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q18">
-        <v>0.1946182089063333</v>
+        <v>0.005475030047222223</v>
       </c>
       <c r="R18">
-        <v>1.167709253438</v>
+        <v>0.049275270425</v>
       </c>
       <c r="S18">
-        <v>0.02484285266652983</v>
+        <v>0.0007631559610282084</v>
       </c>
       <c r="T18">
-        <v>0.02632495061456487</v>
+        <v>0.00122238702176511</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3435785</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H19">
-        <v>0.687157</v>
+        <v>0.225175</v>
       </c>
       <c r="I19">
-        <v>0.3695256686375578</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J19">
-        <v>0.2874575814569891</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.7207635</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N19">
-        <v>13.441527</v>
+        <v>1.209229</v>
       </c>
       <c r="O19">
-        <v>0.797660292168841</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P19">
-        <v>0.7243753443962271</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q19">
-        <v>2.30910984218475</v>
+        <v>0.03025423778611112</v>
       </c>
       <c r="R19">
-        <v>9.236439368739001</v>
+        <v>0.272288140075</v>
       </c>
       <c r="S19">
-        <v>0.2947559528093207</v>
+        <v>0.004217091360904896</v>
       </c>
       <c r="T19">
-        <v>0.208227184567213</v>
+        <v>0.006754736924576511</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3435785</v>
+        <v>0.097247</v>
       </c>
       <c r="H20">
-        <v>0.687157</v>
+        <v>0.194494</v>
       </c>
       <c r="I20">
-        <v>0.3695256686375578</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J20">
-        <v>0.2874575814569891</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.08863199999999999</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N20">
-        <v>0.265896</v>
+        <v>0.168642</v>
       </c>
       <c r="O20">
-        <v>0.01051937432637061</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P20">
-        <v>0.01432936202661938</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q20">
-        <v>0.030452049612</v>
+        <v>0.008199964286999999</v>
       </c>
       <c r="R20">
-        <v>0.182712297672</v>
+        <v>0.032799857148</v>
       </c>
       <c r="S20">
-        <v>0.003887178831600859</v>
+        <v>0.001142980325563221</v>
       </c>
       <c r="T20">
-        <v>0.004119083751993629</v>
+        <v>0.0008136762994429527</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3435785</v>
+        <v>0.097247</v>
       </c>
       <c r="H21">
-        <v>0.687157</v>
+        <v>0.194494</v>
       </c>
       <c r="I21">
-        <v>0.3695256686375578</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J21">
-        <v>0.2874575814569891</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.8891996666666667</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N21">
-        <v>2.667599</v>
+        <v>0.481669</v>
       </c>
       <c r="O21">
-        <v>0.105535519276905</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P21">
-        <v>0.1437591833380263</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q21">
-        <v>0.3055098876738334</v>
+        <v>0.01561362174766667</v>
       </c>
       <c r="R21">
-        <v>1.833059326043</v>
+        <v>0.09368173048600001</v>
       </c>
       <c r="S21">
-        <v>0.03899808332581018</v>
+        <v>0.002176358560080766</v>
       </c>
       <c r="T21">
-        <v>0.04132466715458093</v>
+        <v>0.002323991944334078</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,25 +1774,25 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.06202233333333333</v>
+        <v>0.097247</v>
       </c>
       <c r="H22">
-        <v>0.186067</v>
+        <v>0.194494</v>
       </c>
       <c r="I22">
-        <v>0.06670628166623196</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J22">
-        <v>0.07783718976734225</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1605563333333333</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N22">
-        <v>0.481669</v>
+        <v>1.727297</v>
       </c>
       <c r="O22">
-        <v>0.01905578313479183</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P22">
-        <v>0.02595755287029415</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q22">
-        <v>0.009958078424777776</v>
+        <v>0.05599148378633333</v>
       </c>
       <c r="R22">
-        <v>0.089622705823</v>
+        <v>0.335948902718</v>
       </c>
       <c r="S22">
-        <v>0.001271140437160056</v>
+        <v>0.007804566230651811</v>
       </c>
       <c r="T22">
-        <v>0.002020462968660905</v>
+        <v>0.008333989344285017</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.06202233333333333</v>
+        <v>0.097247</v>
       </c>
       <c r="H23">
-        <v>0.186067</v>
+        <v>0.194494</v>
       </c>
       <c r="I23">
-        <v>0.06670628166623196</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J23">
-        <v>0.07783718976734225</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.5664446666666666</v>
+        <v>9.042617</v>
       </c>
       <c r="N23">
-        <v>1.699334</v>
+        <v>18.085234</v>
       </c>
       <c r="O23">
-        <v>0.06722903109309158</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P23">
-        <v>0.09157855736883302</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q23">
-        <v>0.03513221993088888</v>
+        <v>0.879367375399</v>
       </c>
       <c r="R23">
-        <v>0.316189979378</v>
+        <v>3.517469501596</v>
       </c>
       <c r="S23">
-        <v>0.004484598684243634</v>
+        <v>0.1225736568897844</v>
       </c>
       <c r="T23">
-        <v>0.007128217548537295</v>
+        <v>0.0872589644079166</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.06202233333333333</v>
+        <v>0.097247</v>
       </c>
       <c r="H24">
-        <v>0.186067</v>
+        <v>0.194494</v>
       </c>
       <c r="I24">
-        <v>0.06670628166623196</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J24">
-        <v>0.07783718976734225</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>6.7207635</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N24">
-        <v>13.441527</v>
+        <v>0.218831</v>
       </c>
       <c r="O24">
-        <v>0.797660292168841</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P24">
-        <v>0.7243753443962271</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q24">
-        <v>0.4168374340515</v>
+        <v>0.007093552752333334</v>
       </c>
       <c r="R24">
-        <v>2.501024604309</v>
+        <v>0.042561316514</v>
       </c>
       <c r="S24">
-        <v>0.05320895212338359</v>
+        <v>0.0009887593348565805</v>
       </c>
       <c r="T24">
-        <v>0.05638334114455303</v>
+        <v>0.001055831870372747</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.06202233333333333</v>
+        <v>0.097247</v>
       </c>
       <c r="H25">
-        <v>0.186067</v>
+        <v>0.194494</v>
       </c>
       <c r="I25">
-        <v>0.06670628166623196</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J25">
-        <v>0.07783718976734225</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.08863199999999999</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N25">
-        <v>0.265896</v>
+        <v>1.209229</v>
       </c>
       <c r="O25">
-        <v>0.01051937432637061</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P25">
-        <v>0.01432936202661938</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q25">
-        <v>0.005497163447999998</v>
+        <v>0.03919796418766667</v>
       </c>
       <c r="R25">
-        <v>0.04947447103199999</v>
+        <v>0.235187785126</v>
       </c>
       <c r="S25">
-        <v>0.0007017083467674072</v>
+        <v>0.005463743536013124</v>
       </c>
       <c r="T25">
-        <v>0.001115357271310921</v>
+        <v>0.005834376833167908</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.06202233333333333</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H26">
-        <v>0.186067</v>
+        <v>0.087491</v>
       </c>
       <c r="I26">
-        <v>0.06670628166623196</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J26">
-        <v>0.07783718976734225</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>0.8891996666666667</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N26">
-        <v>2.667599</v>
+        <v>0.168642</v>
       </c>
       <c r="O26">
-        <v>0.105535519276905</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P26">
-        <v>0.1437591833380263</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q26">
-        <v>0.05515023812588889</v>
+        <v>0.002459109537</v>
       </c>
       <c r="R26">
-        <v>0.496352143133</v>
+        <v>0.014754657222</v>
       </c>
       <c r="S26">
-        <v>0.007039882074677276</v>
+        <v>0.0003427714708040753</v>
       </c>
       <c r="T26">
-        <v>0.0111898108342801</v>
+        <v>0.0003660233894853485</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.09583999999999999</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H27">
-        <v>0.28752</v>
+        <v>0.087491</v>
       </c>
       <c r="I27">
-        <v>0.1030778703621546</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J27">
-        <v>0.1202779042060454</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,27 +2117,27 @@
         <v>0.481669</v>
       </c>
       <c r="O27">
-        <v>0.01905578313479183</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P27">
-        <v>0.02595755287029415</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q27">
-        <v>0.01538771898666666</v>
+        <v>0.004682411386555556</v>
       </c>
       <c r="R27">
-        <v>0.13848947088</v>
+        <v>0.042141702479</v>
       </c>
       <c r="S27">
-        <v>0.001964229543617404</v>
+        <v>0.0006526740731677287</v>
       </c>
       <c r="T27">
-        <v>0.003122120057556597</v>
+        <v>0.00104542237396389</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.09583999999999999</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H28">
-        <v>0.28752</v>
+        <v>0.087491</v>
       </c>
       <c r="I28">
-        <v>0.1030778703621546</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J28">
-        <v>0.1202779042060454</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,33 +2173,33 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.5664446666666666</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N28">
-        <v>1.699334</v>
+        <v>1.727297</v>
       </c>
       <c r="O28">
-        <v>0.06722903109309158</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P28">
-        <v>0.09157855736883302</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q28">
-        <v>0.05428805685333332</v>
+        <v>0.01679143798077778</v>
       </c>
       <c r="R28">
-        <v>0.48859251168</v>
+        <v>0.151122941827</v>
       </c>
       <c r="S28">
-        <v>0.006929825351586955</v>
+        <v>0.002340532541144226</v>
       </c>
       <c r="T28">
-        <v>0.01101487695053633</v>
+        <v>0.003748954012570262</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.09583999999999999</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H29">
-        <v>0.28752</v>
+        <v>0.087491</v>
       </c>
       <c r="I29">
-        <v>0.1030778703621546</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J29">
-        <v>0.1202779042060454</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.7207635</v>
+        <v>9.042617</v>
       </c>
       <c r="N29">
-        <v>13.441527</v>
+        <v>18.085234</v>
       </c>
       <c r="O29">
-        <v>0.797660292168841</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P29">
-        <v>0.7243753443962271</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q29">
-        <v>0.64411797384</v>
+        <v>0.2637158679823333</v>
       </c>
       <c r="R29">
-        <v>3.86470784304</v>
+        <v>1.582295207894</v>
       </c>
       <c r="S29">
-        <v>0.08222112418921815</v>
+        <v>0.03675894651401116</v>
       </c>
       <c r="T29">
-        <v>0.08712634828251052</v>
+        <v>0.0392524913622684</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.09583999999999999</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H30">
-        <v>0.28752</v>
+        <v>0.087491</v>
       </c>
       <c r="I30">
-        <v>0.1030778703621546</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J30">
-        <v>0.1202779042060454</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>0.08863199999999999</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N30">
-        <v>0.265896</v>
+        <v>0.218831</v>
       </c>
       <c r="O30">
-        <v>0.01051937432637061</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P30">
-        <v>0.01432936202661938</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q30">
-        <v>0.008494490879999999</v>
+        <v>0.002127304780111111</v>
       </c>
       <c r="R30">
-        <v>0.07645041791999999</v>
+        <v>0.019145743021</v>
       </c>
       <c r="S30">
-        <v>0.001084314703104607</v>
+        <v>0.0002965217194907026</v>
       </c>
       <c r="T30">
-        <v>0.00172350563317147</v>
+        <v>0.0004749544262073998</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.09583999999999999</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H31">
-        <v>0.28752</v>
+        <v>0.087491</v>
       </c>
       <c r="I31">
-        <v>0.1030778703621546</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J31">
-        <v>0.1202779042060454</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.8891996666666667</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N31">
-        <v>2.667599</v>
+        <v>1.209229</v>
       </c>
       <c r="O31">
-        <v>0.105535519276905</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P31">
-        <v>0.1437591833380263</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q31">
-        <v>0.08522089605333333</v>
+        <v>0.01175518382655556</v>
       </c>
       <c r="R31">
-        <v>0.76698806448</v>
+        <v>0.105796654439</v>
       </c>
       <c r="S31">
-        <v>0.01087837657462748</v>
+        <v>0.00163853687246333</v>
       </c>
       <c r="T31">
-        <v>0.01729105328227044</v>
+        <v>0.002624530646244581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.1019113333333333</v>
+      </c>
+      <c r="H32">
+        <v>0.305734</v>
+      </c>
+      <c r="I32">
+        <v>0.146872191207576</v>
+      </c>
+      <c r="J32">
+        <v>0.1660302068602982</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.08432099999999999</v>
+      </c>
+      <c r="N32">
+        <v>0.168642</v>
+      </c>
+      <c r="O32">
+        <v>0.008155403471034732</v>
+      </c>
+      <c r="P32">
+        <v>0.007703748342576289</v>
+      </c>
+      <c r="Q32">
+        <v>0.008593265538</v>
+      </c>
+      <c r="R32">
+        <v>0.05155959322799999</v>
+      </c>
+      <c r="S32">
+        <v>0.001197801977972742</v>
+      </c>
+      <c r="T32">
+        <v>0.001279054930917621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.1019113333333333</v>
+      </c>
+      <c r="H33">
+        <v>0.305734</v>
+      </c>
+      <c r="I33">
+        <v>0.146872191207576</v>
+      </c>
+      <c r="J33">
+        <v>0.1660302068602982</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.1605563333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.481669</v>
+      </c>
+      <c r="O33">
+        <v>0.01552877311895348</v>
+      </c>
+      <c r="P33">
+        <v>0.02200315912062463</v>
+      </c>
+      <c r="Q33">
+        <v>0.01636251000511111</v>
+      </c>
+      <c r="R33">
+        <v>0.147262590046</v>
+      </c>
+      <c r="S33">
+        <v>0.002280744934746001</v>
+      </c>
+      <c r="T33">
+        <v>0.003653189060377364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.1019113333333333</v>
+      </c>
+      <c r="H34">
+        <v>0.305734</v>
+      </c>
+      <c r="I34">
+        <v>0.146872191207576</v>
+      </c>
+      <c r="J34">
+        <v>0.1660302068602982</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.5757656666666666</v>
+      </c>
+      <c r="N34">
+        <v>1.727297</v>
+      </c>
+      <c r="O34">
+        <v>0.05568721097278211</v>
+      </c>
+      <c r="P34">
+        <v>0.07890478884789671</v>
+      </c>
+      <c r="Q34">
+        <v>0.05867704677755555</v>
+      </c>
+      <c r="R34">
+        <v>0.5280934209979999</v>
+      </c>
+      <c r="S34">
+        <v>0.008178902697811076</v>
+      </c>
+      <c r="T34">
+        <v>0.01310057841468444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.1019113333333333</v>
+      </c>
+      <c r="H35">
+        <v>0.305734</v>
+      </c>
+      <c r="I35">
+        <v>0.146872191207576</v>
+      </c>
+      <c r="J35">
+        <v>0.1660302068602982</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>9.042617</v>
+      </c>
+      <c r="N35">
+        <v>18.085234</v>
+      </c>
+      <c r="O35">
+        <v>0.8745886560766319</v>
+      </c>
+      <c r="P35">
+        <v>0.8261529835545378</v>
+      </c>
+      <c r="Q35">
+        <v>0.9215451552926667</v>
+      </c>
+      <c r="R35">
+        <v>5.529270931756</v>
+      </c>
+      <c r="S35">
+        <v>0.128452752323264</v>
+      </c>
+      <c r="T35">
+        <v>0.1371663507578124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.1019113333333333</v>
+      </c>
+      <c r="H36">
+        <v>0.305734</v>
+      </c>
+      <c r="I36">
+        <v>0.146872191207576</v>
+      </c>
+      <c r="J36">
+        <v>0.1660302068602982</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.07294366666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.218831</v>
+      </c>
+      <c r="O36">
+        <v>0.007055004474844155</v>
+      </c>
+      <c r="P36">
+        <v>0.009996435962300685</v>
+      </c>
+      <c r="Q36">
+        <v>0.007433786328222223</v>
+      </c>
+      <c r="R36">
+        <v>0.066904076954</v>
+      </c>
+      <c r="S36">
+        <v>0.001036183966199615</v>
+      </c>
+      <c r="T36">
+        <v>0.001659710330686507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.1019113333333333</v>
+      </c>
+      <c r="H37">
+        <v>0.305734</v>
+      </c>
+      <c r="I37">
+        <v>0.146872191207576</v>
+      </c>
+      <c r="J37">
+        <v>0.1660302068602982</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.4030763333333334</v>
+      </c>
+      <c r="N37">
+        <v>1.209229</v>
+      </c>
+      <c r="O37">
+        <v>0.03898495188575349</v>
+      </c>
+      <c r="P37">
+        <v>0.05523888417206382</v>
+      </c>
+      <c r="Q37">
+        <v>0.04107804656511112</v>
+      </c>
+      <c r="R37">
+        <v>0.369702419086</v>
+      </c>
+      <c r="S37">
+        <v>0.005725805307582535</v>
+      </c>
+      <c r="T37">
+        <v>0.009171323365819807</v>
       </c>
     </row>
   </sheetData>
